--- a/biology/Zoologie/André_Intès/André_Intès.xlsx
+++ b/biology/Zoologie/André_Intès/André_Intès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Int%C3%A8s</t>
+          <t>André_Intès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Intès est un zoologiste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Int%C3%A8s</t>
+          <t>André_Intès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,121 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1972
-Le Loeuff P. &amp; Intès A., 1972. Cumacés du plateau continental de Côte d'Ivoire. O.R.S.T.M., Ser. Océanogr. 10(1): 19–46.
-1975
-Intès A. &amp; Le Loeuff P., 1975. Les annélides polychètes de Côte d'Ivoire. I. Polychètes errantes–compte rendu systématique. Cahiers de l'Office de Recherches …
-1976
-Arnaud F., Arnaud P.M., Intès A. &amp; Le Loeuff P., 1976. Transport d'invertébrés benthiques entre l'Afrique du Sud et Sainte Hélène par les laminaires (Phaeophyceae). Bulletin du Muséum …
-1977
-Le Loeuff P. &amp; Intès A., 1977. Les Bodotria (Crustacea, Cumacea) des mers d'Europe et des côtes occidentales de l'Afrique tropicale. Bulletin du Muséum National d'Histoire Naturelle, Series 3 498: 1137–1164.
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Loeuff P. &amp; Intès A., 1972. Cumacés du plateau continental de Côte d'Ivoire. O.R.S.T.M., Ser. Océanogr. 10(1): 19–46.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>André_Intès</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Int%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Intès A. &amp; Le Loeuff P., 1975. Les annélides polychètes de Côte d'Ivoire. I. Polychètes errantes–compte rendu systématique. Cahiers de l'Office de Recherches …</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Intès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Int%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arnaud F., Arnaud P.M., Intès A. &amp; Le Loeuff P., 1976. Transport d'invertébrés benthiques entre l'Afrique du Sud et Sainte Hélène par les laminaires (Phaeophyceae). Bulletin du Muséum …</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Intès</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Int%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Loeuff P. &amp; Intès A., 1977. Les Bodotria (Crustacea, Cumacea) des mers d'Europe et des côtes occidentales de l'Afrique tropicale. Bulletin du Muséum National d'Histoire Naturelle, Series 3 498: 1137–1164.
 Notices d'autorité : VIAF 
  Portail de la zoologie                     </t>
         </is>
